--- a/data/trans_camb/P23_DUKE_AC_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AC_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>-11,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>58,53</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>54,66</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>56,71</t>
+          <t>-12,46</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-12,83</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,14</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-6,31</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-8,83</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 4,71</t>
+          <t>-15,68; 6,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -0,71</t>
+          <t>-23,08; 0,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,3; 68,93</t>
+          <t>-11,18; 9,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 5,62</t>
+          <t>-9,43; 15,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 6,23</t>
+          <t>-17,56; 5,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,2; 64,63</t>
+          <t>-11,7; 8,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 3,51</t>
+          <t>-12,21; 10,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 1,53</t>
+          <t>-6,01; 15,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,45; 64,25</t>
+          <t>-24,11; -2,26</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-24,57; -1,6</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,66; 3,85</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-14,6; 1,72</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 9,76</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-11,7; 4,19</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-17,08; -0,44</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,42%</t>
+          <t>-6,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-69,43%</t>
+          <t>-14,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>597,59%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>-5,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>527,42%</t>
+          <t>-0,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,94%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-34,39%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>563,3%</t>
+          <t>-16,24%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-16,64%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-4,2%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-8,45%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-5,09%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-10,77%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,93; 83,16</t>
+          <t>-19,09; 8,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-92,61; 28,04</t>
+          <t>-28,46; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>296,63; 1244,46</t>
+          <t>-13,7; 13,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,94; 84,92</t>
+          <t>-11,0; 21,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,46; 100,99</t>
+          <t>-19,49; 6,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>271,17; 941,29</t>
+          <t>-15,18; 13,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 49,53</t>
+          <t>-15,59; 15,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,32; 23,37</t>
+          <t>-7,78; 23,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>352,86; 929,1</t>
+          <t>-30,38; -3,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-29,93; -2,05</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-13,86; 5,52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,78; 2,25</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 13,74</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-14,63; 5,65</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-20,11; -0,63</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>60,54</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,82</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>60,69</t>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 6,12</t>
+          <t>-6,37; 17,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 16,7</t>
+          <t>-6,54; 16,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,58; 71,26</t>
+          <t>-12,85; 13,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 2,78</t>
+          <t>-11,35; 15,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 4,79</t>
+          <t>-16,22; 12,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,31; 68,64</t>
+          <t>-3,48; 12,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 2,14</t>
+          <t>-12,9; 5,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 8,51</t>
+          <t>-12,27; 6,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,33; 67,38</t>
+          <t>-7,19; 11,36</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,78; 9,6</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 11,82</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 8,08</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-9,16; 6,92</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; 10,22</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 7,9</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-27,0%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>515,26%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-26,02%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,21%</t>
+          <t>-2,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>441,9%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-26,33%</t>
+          <t>-4,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>477,53%</t>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-2,55%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,67; 105,91</t>
+          <t>-8,08; 27,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,06; 224,17</t>
+          <t>-8,32; 26,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>164,56; 1068,74</t>
+          <t>-16,56; 21,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,55; 33,91</t>
+          <t>-14,96; 22,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,02; 48,05</t>
+          <t>-19,73; 18,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>265,54; 734,79</t>
+          <t>-4,08; 15,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,19; 23,05</t>
+          <t>-15,28; 6,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,63; 90,24</t>
+          <t>-14,23; 8,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>269,41; 702,71</t>
+          <t>-8,8; 15,4</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-11,8; 12,67</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 16,69</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-8,4; 11,46</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-11,49; 9,4</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 14,73</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; 10,94</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>58,05</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>67,52</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>62,71</t>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-7,19</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,34</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,25</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 5,59</t>
+          <t>-0,3; 17,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 9,27</t>
+          <t>-1,03; 15,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,72; 65,86</t>
+          <t>-12,66; 9,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 3,92</t>
+          <t>2,55; 21,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 8,83</t>
+          <t>-2,32; 13,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,26; 74,18</t>
+          <t>-0,31; 12,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 2,61</t>
+          <t>-2,67; 9,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 7,2</t>
+          <t>-5,29; 7,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,08; 67,72</t>
+          <t>-6,81; 6,68</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-14,09; -0,75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 11,57</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 10,99</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 5,6</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 10,83</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-5,56; 4,52</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>306,74%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,36%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>487,66%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-13,77%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>383,7%</t>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-8,02%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,83; 40,55</t>
+          <t>-0,34; 24,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 63,96</t>
+          <t>-1,06; 22,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>147,21; 457,2</t>
+          <t>-14,93; 13,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 38,59</t>
+          <t>3,13; 30,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 84,71</t>
+          <t>-2,46; 17,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>342,62; 689,91</t>
+          <t>-0,36; 16,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 20,18</t>
+          <t>-3,2; 12,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 53,23</t>
+          <t>-6,19; 9,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>249,36; 512,76</t>
+          <t>-8,11; 8,36</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-15,41; -0,87</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 15,18</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 14,38</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 7,16</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 14,39</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 5,46</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>73,93</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>68,87</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>71,41</t>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-4,7</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6,04</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7,64</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-4,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 15,61</t>
+          <t>-1,23; 13,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 14,26</t>
+          <t>-7,44; 8,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>66,77; 80,8</t>
+          <t>1,53; 16,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 10,12</t>
+          <t>-4,24; 8,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 9,79</t>
+          <t>-10,71; 0,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,19; 74,49</t>
+          <t>1,08; 12,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 11,07</t>
+          <t>0,85; 11,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 9,61</t>
+          <t>0,69; 11,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>66,32; 75,55</t>
+          <t>-7,03; 4,17</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; 0,7</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 10,62</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 8,14</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 12,34</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 4,42</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-9,0; -0,74</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>48,85%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>453,78%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>381,94%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>415,14%</t>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-5,11%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-5,03%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 125,06</t>
+          <t>-1,43; 18,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 116,73</t>
+          <t>-9,23; 12,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>292,18; 705,87</t>
+          <t>1,99; 22,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 66,95</t>
+          <t>-4,77; 9,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 66,99</t>
+          <t>-11,21; 0,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>280,92; 526,98</t>
+          <t>1,25; 15,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,14; 75,96</t>
+          <t>1,0; 14,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 65,03</t>
+          <t>0,87; 14,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>323,7; 524,21</t>
+          <t>-7,74; 4,81</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-10,96; 0,75</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 13,99</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 10,53</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>4,08; 16,23</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 5,2</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; -0,83</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>65,77</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>57,83</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>61,61</t>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5,02</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>9,8</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 8,57</t>
+          <t>-5,05; 11,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 9,89</t>
+          <t>-1,34; 15,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>56,47; 72,97</t>
+          <t>0,6; 17,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 3,95</t>
+          <t>-7,17; 8,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 9,43</t>
+          <t>-11,56; 3,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,9; 65,12</t>
+          <t>-3,65; 13,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 4,25</t>
+          <t>-4,19; 11,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 7,96</t>
+          <t>3,41; 17,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>55,72; 67,23</t>
+          <t>-6,86; 5,54</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 11,67</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 9,94</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 10,81</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 15,22</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 4,37</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 6,07</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>409,91%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-17,78%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>275,74%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-6,03%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>331,07%</t>
+          <t>-0,93%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 69,13</t>
+          <t>-6,43; 16,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 79,94</t>
+          <t>-1,7; 22,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>267,81; 628,98</t>
+          <t>0,78; 24,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,49; 26,23</t>
+          <t>-8,17; 10,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 55,35</t>
+          <t>-12,63; 3,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>184,29; 395,52</t>
+          <t>-4,29; 17,81</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 26,58</t>
+          <t>-5,11; 15,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 50,62</t>
+          <t>4,15; 23,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>251,96; 445,48</t>
+          <t>-7,32; 6,48</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 14,49</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 13,34</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 14,53</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 20,71</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; 5,2</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 7,31</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>60,58</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>56,89</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>58,44</t>
+          <t>-4,57</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>10,75</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-3,07</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 7,26</t>
+          <t>-5,16; 14,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 8,6</t>
+          <t>-8,47; 12,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>45,81; 71,3</t>
+          <t>3,66; 22,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 4,65</t>
+          <t>-8,96; 7,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 20,12</t>
+          <t>-5,79; 11,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>45,28; 66,21</t>
+          <t>0,41; 16,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 2,81</t>
+          <t>-6,9; 10,83</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 12,75</t>
+          <t>-2,06; 18,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>48,99; 65,82</t>
+          <t>-14,54; 6,74</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-11,49; 10,44</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 13,39</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 9,7</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 17,29</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-9,92; 3,89</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-7,22; 7,77</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-14,96%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-9,1%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>271,87%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-16,71%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>280,63%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-15,64%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>276,76%</t>
+          <t>-5,6%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-2,04%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-3,61%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 49,58</t>
+          <t>-6,3; 21,33</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-51,64; 59,5</t>
+          <t>-10,29; 17,83</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>133,1; 489,17</t>
+          <t>5,12; 31,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 28,0</t>
+          <t>-9,61; 8,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 123,74</t>
+          <t>-6,42; 14,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>175,77; 438,32</t>
+          <t>0,4; 24,85</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-42,9; 18,79</t>
+          <t>-8,91; 16,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 75,86</t>
+          <t>-2,58; 26,96</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>181,55; 403,23</t>
+          <t>-17,07; 9,23</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-13,79; 14,26</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 19,04</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 13,92</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 24,2</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-11,23; 4,81</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; 10,37</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>63,12</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>61,68</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>62,39</t>
+          <t>-2,59</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-3,45</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,6</t>
+          <t>-0,02; 7,07</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 4,99</t>
+          <t>-1,74; 6,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>58,7; 67,37</t>
+          <t>0,47; 8,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,29</t>
+          <t>-0,96; 7,72</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 5,29</t>
+          <t>-4,9; 2,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>58,19; 64,93</t>
+          <t>1,67; 8,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,35</t>
+          <t>-1,41; 5,14</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,86</t>
+          <t>1,42; 7,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>59,19; 65,04</t>
+          <t>-6,14; 1,11</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 0,18</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 7,08</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 4,35</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 7,42</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 3,17</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 0,54</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>397,64%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>377,44%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>387,16%</t>
+          <t>-3,13%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-4,12%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-2,5%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 25,4</t>
+          <t>-0,02; 9,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 35,9</t>
+          <t>-2,22; 8,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>309,82; 500,57</t>
+          <t>0,56; 11,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 8,42</t>
+          <t>-1,08; 10,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 34,76</t>
+          <t>-5,74; 3,35</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>315,93; 447,29</t>
+          <t>2,13; 10,86</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 9,02</t>
+          <t>-1,7; 6,82</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 25,94</t>
+          <t>1,76; 10,33</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>327,97; 442,94</t>
+          <t>-7,2; 1,32</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-8,32; 0,16</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 9,3</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 5,7</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 9,8</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 3,94</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 0,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
